--- a/extracted.xlsx
+++ b/extracted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;re.Match object; span=(906, 922), match='Description\nHSN\n'&gt;</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Saban Barman</t>
+          <t>chhotu kumar</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -568,92 +568,4236 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1490812609747580</t>
+          <t>149077185717253</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Cod</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Monika thapa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>170424380258813249</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>170424380258813249</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>wh1yp261649</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>28.06.2025</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>28.06.2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>85cm</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Rs.8.29</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Valsala</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1490814948985946</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>170778255925284224</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>wh1yp261662</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>85cm</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Rs.8.29</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vanitha</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>170864778297660928</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>COD</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>149468524570118016</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>wh1yp267</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>01.05.2025</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>01.05.2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>170864778297660928</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>wh1yp261680</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>HSN</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>85cm</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Rs.8.43</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>borsha mukhi</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>170899285081360896</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>170899285081360896</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>wh1yp261688</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>85cm</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Rs.8.57</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DILIP KUMAR</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1490814948986075</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>170952489029260803</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>wh1yp261690</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>85cm</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Rs.7.62</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dnyaneshwar Gawhale</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>170919132656488576</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>170919132656488576</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>wh1yp261689</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>90cm</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Rs.5.00</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Rs.8.95</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sahin</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>170420675084734592</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>170420675084734592</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>wh1yp261648</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>28.06.2025</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>28.06.2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Rs.7.52</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>West Bengal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Swetha R</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Shadowfax</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>170811841495797248</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>170811841495797248</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>wh1yp261667</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Rs.7.76</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Monalisha Chowdhury</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>170816787276813824</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>170816787276813824</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>wh1yp261671</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Rs.6.58</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Vaghela Seema Yogesh</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1490814948986042</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>170844470689500544</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>wh1yp261676</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Rs.7.71</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tumi Srinivas theatre</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Shadowfax</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>170862154202665088</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>170862154202665088</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>wh1yp261679</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Rs.7.71</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>babita</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1490814948986086</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>170892373044528448</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>wh1yp261682</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Rs.7.38</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>pintu kumar</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>170896380704772224</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>170896380704772224</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>wh1yp261683</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Rs.7.52</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>guna</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1490814948985972</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>170896482489369920</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>wh1yp261684</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Rs.7.76</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Kabita Behera</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>170896724196429248</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>170896724196429248</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>wh1yp261686</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Rs.6.05</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Savita Darekar</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1490814948986031</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>170896756186910208</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>wh1yp261685</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Rs.7.62</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sk arif</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1490814948985950</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>170898858304966016</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>wh1yp261687</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Rs.7.32</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sirisha</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Shadowfax</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>170697369213046272</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>170697369213046272</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>wh1yp261650</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Rs.7.76</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Trisha Krishnan</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Shadowfax</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>170741556282950976</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>170741556282950976</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>wh1yp261652</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Rs.7.76</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Rushikesh Karewad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1490814948986064</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>170757900418863232</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>wh1yp261657</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Rs.7.52</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ujjal</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>170761844670172608</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>170761844670172608</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>wh1yp261658</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Rs.8.19</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ranjeela Roy</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>170768437970129024</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>170768437970129024</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>wh1yp261659</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Rs.7.48</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Shahjahan Khatun</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>170769798128390272</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>170769798128390272</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>wh1yp261660</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Rs.6.81</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>preethi</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1490814948985983</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>170777839414464640</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>wh1yp261661</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Rs.6.29</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sahana</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>170780948769461760</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>170780948769461760</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>wh1yp261663</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Rs.6.24</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ronak katara</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Shadowfax</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>170784255159930368</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>170784255159930368</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>wh1yp261664</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Rs.7.71</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>J Madhu</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1490814948986053</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>170789089812516352</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>wh1yp261665</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Rs.6.90</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>sattibabau</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Shadowfax</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>170742897435398272</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>170742897435398272</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>wh1yp261653</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Rs.6.90</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>muguntha</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Shadowfax</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>170754523265947136</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>170754523265947136</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>wh1yp261655</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Rs.6.95</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>lata Dinesh jadhav</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Shadowfax</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>170798704121974144</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>170798704121974144</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>wh1yp261666</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Rs.7.81</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>usman khan</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>170814639037320640</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>170814639037320640</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>wh1yp261668</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Rs.7.05</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A.Bhuvana</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1490814948985994</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>170815689589362176</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>wh1yp261669</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Rs.6.95</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Afreen Khan</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1490814948986016</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>170816777730231680</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>wh1yp261670</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Rs.7.76</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>shashikala rp</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>170819891799625088</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>170819891799625088</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>wh1yp261672</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Rs.7.57</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>anju sharma</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>170853479190465920</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>170853479190465920</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>wh1yp261677</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Rs.7.19</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Anjana Aami</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1490814948986005</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>170861149544877440</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>wh1yp261678</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Rs.7.19</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Komal Sharma</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>170864982689943040</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>170864982689943040</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>wh1yp261681</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Rs.6.00</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
     </row>

--- a/extracted.xlsx
+++ b/extracted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,17 +558,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>POOVIZHI C</t>
+          <t>Badol paul</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Delhivery</t>
+          <t>Valmo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1490814700212445</t>
+          <t>175251327743686272</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -578,22 +578,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>166844761641145216</t>
+          <t>175251327743686272</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>wh1yp261319</t>
+          <t>wh1yp262031</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18.06.2025</t>
+          <t>11.07.2025</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>18.06.2025</t>
+          <t>11.07.2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>90cm</t>
+          <t>85cm</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Rs.8.05</t>
+          <t>Rs.8.62</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>West Bengal</t>
         </is>
       </c>
     </row>
@@ -670,42 +670,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ruhi Gupta</t>
+          <t>Lokanathan G</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Valmo</t>
+          <t>Delhivery</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>167950582750152192</t>
+          <t>1490815352952096</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>Prepaid: Do not collect cash</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>167950582750152192</t>
+          <t>175327057083911168</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>wh1yp261448</t>
+          <t>wh1yp262032</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>12.07.2025</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>12.07.2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>80cm</t>
+          <t>90cm</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Rs.8.95</t>
+          <t>Rs.8.33</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
     </row>
@@ -782,42 +782,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Somodipta Das</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Delhivery</t>
+          <t>Shadowfax</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1490814711910182</t>
+          <t>175488445392877376</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Prepaid: Do not collect cash</t>
+          <t>COD</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>168051291384283968</t>
+          <t>175488445392877376</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>wh1yp261455</t>
+          <t>wh1yp262034</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>12.07.2025</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>12.07.2025</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>80cm</t>
+          <t>90cm</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Rs.7.71</t>
+          <t>Rs.8.95</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Latha</t>
+          <t>Reena</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -904,32 +904,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>167897290804332032</t>
+          <t>175432277122108608</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Prepaid: Do not collect cash</t>
+          <t>COD</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>167897290804332032</t>
+          <t>175432277122108608</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>wh1yp261445</t>
+          <t>wh1yp262033</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>12.07.2025</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>12.07.2025</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>85cm</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -984,12 +984,12 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Rs.8.29</t>
+          <t>Rs.7.57</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kumkum Singh</t>
+          <t>Arhan Arman</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>168000191352361664</t>
+          <t>175129190839452992</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>168000191352361664</t>
+          <t>175129190839452992</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>wh1yp261450</t>
+          <t>wh1yp262018</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>11.07.2025</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>11.07.2025</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>85cm</t>
+          <t>90cm</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Rs.8.57</t>
+          <t>Rs.8.91</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Karnataka</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Santosh Sharma</t>
+          <t>Prashant</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1490814711910090</t>
+          <t>1490815332957215</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1138,22 +1138,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>167970131522716992</t>
+          <t>174085951436981568</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>wh1yp261449</t>
+          <t>wh1yp261960</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>08.07.2025</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>08.07.2025</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>90cm</t>
+          <t>S</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1208,908 +1208,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Rs.8.76</t>
+          <t>Rs.7.52</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>abhishekkumar</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Valmo</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>167845438325097792</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>COD</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>167845438325097792</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>wh1yp261439</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>HSN</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Rs.7.76</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>chanchl</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Delhivery</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1490814711910145</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>COD</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>167848090919863808</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>wh1yp261440</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>HSN</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Rs.6.90</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Chhattisgarh</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>kamesawar sharma</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Delhivery</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1490814711910112</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>COD</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>167894966801106432</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>wh1yp261444</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>HSN</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Rs.7.33</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Partha Das</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Delhivery</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1490814711910510</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>COD</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>168029863969129600</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>wh1yp261452</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>HSN</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Rs.7.32</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Devi</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Delhivery</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1490814711910160</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Prepaid: Do not collect cash</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>168042491225081344</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>wh1yp261453</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>HSN</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Rs.6.29</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Andhra Pradesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Toni Rwgis</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Shadowfax</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>167870868616218112</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>COD</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>167870868616218112</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>wh1yp261443</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>HSN</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Rs.7.76</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Tamil Nadu</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Jayapriya</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Valmo</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>168060886140421248</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>COD</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>168060886140421248</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>wh1yp261456</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>21.06.2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>HSN</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Rs.6.95</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Tamil Nadu</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>khushbu</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Delhivery</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>149076988790851</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Cod</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Bihar</t>
+          <t>Telangana</t>
         </is>
       </c>
     </row>

--- a/extracted.xlsx
+++ b/extracted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>panty</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Badol paul</t>
+          <t>HashemAlom</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>175251327743686272</t>
+          <t>175556396517968896</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -578,22 +578,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>175251327743686272</t>
+          <t>175556396517968896</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>wh1yp262031</t>
+          <t>wh1yp262035</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11.07.2025</t>
+          <t>12.07.2025</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11.07.2025</t>
+          <t>12.07.2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -648,19 +648,19 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Rs.8.62</t>
+          <t>Rs.9.62</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>West Bengal</t>
+          <t>Meghalaya</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>panty</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lokanathan G</t>
+          <t>SujalNikam</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -680,22 +680,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1490815352952096</t>
+          <t>1490815374383440</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Prepaid: Do not collect cash</t>
+          <t>COD</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>175327057083911168</t>
+          <t>175558215541476608</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>wh1yp262032</t>
+          <t>wh1yp262037</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>90cm</t>
+          <t>85cm</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -760,19 +760,19 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Rs.8.33</t>
+          <t>Rs.9.00</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Maharashtra</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>panty</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -782,17 +782,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rahul</t>
+          <t>Sonam Kumari</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Shadowfax</t>
+          <t>Valmo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>175488445392877376</t>
+          <t>175561098886401152</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>175488445392877376</t>
+          <t>175561098886401152</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>wh1yp262034</t>
+          <t>wh1yp262040</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>90cm</t>
+          <t>85cm</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -872,29 +872,29 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Rs.8.95</t>
+          <t>Rs.8.91</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Karnataka</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>panty</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Reena</t>
+          <t>Priyanka Naganur</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -904,32 +904,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>175432277122108608</t>
+          <t>175777324985481024</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>Prepaid: Do not collect cash</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>175432277122108608</t>
+          <t>175777324985481024</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>wh1yp262033</t>
+          <t>wh1yp262049</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>12.07.2025</t>
+          <t>13.07.2025</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12.07.2025</t>
+          <t>13.07.2025</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>85cm</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -989,14 +989,14 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Karnataka</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>panty</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Arhan Arman</t>
+          <t>yogesh ghumre</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shadowfax</t>
+          <t>Valmo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>175129190839452992</t>
+          <t>175557886137617344</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>175129190839452992</t>
+          <t>175557886137617344</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>wh1yp262018</t>
+          <t>wh1yp262036</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11.07.2025</t>
+          <t>12.07.2025</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11.07.2025</t>
+          <t>12.07.2025</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1096,124 +1096,1692 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Rs.8.91</t>
+          <t>Rs.8.95</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Maharashtra</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>panty</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Prashant</t>
+          <t>Nilima. Chatterjee</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>175602238777194176</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>175602238777194176</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>wh1yp262047</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>90cm</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Rs.7.33</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>md ahsan alam</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>175559048513473472</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>175559048513473472</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>wh1yp262039</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Rs.7.52</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sana Parveen</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>175569396977126528</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>175569396977126528</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>wh1yp262044</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Rs.6.71</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Lopamudra Mohapatra</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>175582101089023872</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>175582101089023872</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>wh1yp262045</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Rs.6.57</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fatima</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>175583658634136704</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>175583658634136704</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>wh1yp262046</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Rs.6.95</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>abhishekkumar</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>175785844262827648</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>175785844262827648</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>wh1yp262050</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>13.07.2025</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>13.07.2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Rs.6.81</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ansh kumar</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Shadowfax</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>175792758027712256</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>175792758027712256</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>wh1yp262052</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>13.07.2025</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>13.07.2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Rs.6.71</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PRIYANKA SETHIYA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>175801950759286592</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Prepaid: Do not collect cash</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>175801950759286592</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>wh1yp262053</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>13.07.2025</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>13.07.2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Rs.6.10</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>priti kushwaha</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>175805390238272576</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>175805390238272576</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>wh1yp262054</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>13.07.2025</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>13.07.2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Rs.7.76</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>kathiravan</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Shadowfax</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>175558673123265728</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>175558673123265728</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>wh1yp262038</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Rs.6.95</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>asif khan</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Shadowfax</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>175566302205725696</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>175566302205725696</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>wh1yp262041</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Rs.7.71</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>md       shabbir</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Delhivery</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1490815332957215</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1490815374383451</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>COD</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>174085951436981568</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>wh1yp261960</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>08.07.2025</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>08.07.2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>175566625197782912</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>wh1yp262042</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>HSN</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Rs.7.52</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Rs.7.71</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
         <is>
           <t>Telangana</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ruplekha</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Valmo</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>175568367388740672</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>175568367388740672</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>wh1yp262043</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Rs.8.48</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Revathy</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1490815374383462</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>175652059540900992</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>wh1yp262048</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Rs.7.48</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>camisole</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>kajal singh</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Delhivery</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1490815374383495</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>175786099799510272</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>wh1yp262051</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>13.07.2025</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>13.07.2025</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>HSN</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Rs.6.57</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
         </is>
       </c>
     </row>
